--- a/biology/Médecine/1107_en_santé_et_médecine/1107_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1107_en_santé_et_médecine/1107_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1107_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1107_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1107 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1107_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1107_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation d'un hôtel-Dieu à Noyon-sur-Andelle en Normandie[1].
-Fondation de l'abbaye d'Astino (it), dont les bâtiments accueilleront au XIXe siècle l'hôpital psychiatrique de Bergame, en Lombardie[2].
-Pierre II, évêque de Poitiers, « institu[e] une confrérie au bénéfice de la maison-Dieu de Montmorillon[3] ».
-Fondation possible, avec l'aide d'Henri Ier, roi d'Angleterre et duc de Normandie, de la léproserie d'Orbec dans le diocèse de Lisieux[4].
-Première mention, à Ravello, en Campanie, dans l'Italie du Sud, d'« un hôpital destiné à l'accueil des indigents, des pèlerins et des voyageurs », entièrement disparu, mais dont le nom de l'église Sant'Angelo dell'Ospedale (« Saint-Angel-de-l'Hôpital »)  rappelle aujourd'hui l'existence[5].
-1105-1107 : fondation d'une maladrerie à Corbie, en Amiénois[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation d'un hôtel-Dieu à Noyon-sur-Andelle en Normandie.
+Fondation de l'abbaye d'Astino (it), dont les bâtiments accueilleront au XIXe siècle l'hôpital psychiatrique de Bergame, en Lombardie.
+Pierre II, évêque de Poitiers, « institu[e] une confrérie au bénéfice de la maison-Dieu de Montmorillon ».
+Fondation possible, avec l'aide d'Henri Ier, roi d'Angleterre et duc de Normandie, de la léproserie d'Orbec dans le diocèse de Lisieux.
+Première mention, à Ravello, en Campanie, dans l'Italie du Sud, d'« un hôpital destiné à l'accueil des indigents, des pèlerins et des voyageurs », entièrement disparu, mais dont le nom de l'église Sant'Angelo dell'Ospedale (« Saint-Angel-de-l'Hôpital »)  rappelle aujourd'hui l'existence.
+1105-1107 : fondation d'une maladrerie à Corbie, en Amiénois.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1107_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1107_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un « marchand de drogues simples » est attesté à Poitiers[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un « marchand de drogues simples » est attesté à Poitiers.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1107_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1107_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1107-1108 : le médecin chinois Zhu Gong achève son Leizheng huoren shu (« Traité des cas classifiés en vue de la sauvegarde de la vie[8],[9] »).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1107-1108 : le médecin chinois Zhu Gong achève son Leizheng huoren shu (« Traité des cas classifiés en vue de la sauvegarde de la vie, »).</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1107_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1107_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Albert, médecin, cité dans une charte de l'abbaye Saint-Père de Chartres[10].
-1089-1107 : fl. Foulque, médecin, archidiacre de Blois, au diocèse de Chartres[10],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Albert, médecin, cité dans une charte de l'abbaye Saint-Père de Chartres.
+1089-1107 : fl. Foulque, médecin, archidiacre de Blois, au diocèse de Chartres,.
 </t>
         </is>
       </c>
